--- a/Mechanical/3D Model/Model 4/Mass Analysis.xlsx
+++ b/Mechanical/3D Model/Model 4/Mass Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danzn\Desktop\ARMFLEX9000\Mechanical\3D Model\Model 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danzn\Desktop\ARMFLEX9000\Mechanical\3D Model\Model 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A149A9D5-AB34-4C48-ADC4-1E4C4DC52ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205C9467-60B3-4031-ABCC-ABD1BA1D4734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="4476" windowWidth="30960" windowHeight="12204" xr2:uid="{B3E33D88-83A3-41BC-A8DD-9DF247FD2043}"/>
+    <workbookView xWindow="5184" yWindow="4476" windowWidth="30960" windowHeight="12204" activeTab="3" xr2:uid="{B3E33D88-83A3-41BC-A8DD-9DF247FD2043}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
   <si>
     <t>BaseArmMotor</t>
   </si>
@@ -102,175 +102,10 @@
     <t>Taken at the output coordinate system.</t>
   </si>
   <si>
-    <t>Mass = 141.25 grams</t>
-  </si>
-  <si>
-    <t>Volume = 136014.84 cubic millimeters</t>
-  </si>
-  <si>
-    <t>Surface area = 61942.41  square millimeters</t>
-  </si>
-  <si>
-    <t>X = 0.29</t>
-  </si>
-  <si>
-    <t>Y = 3.75</t>
-  </si>
-  <si>
-    <t>Z = -155.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ix = ( 0.00, -0.20,  0.98)   </t>
-  </si>
-  <si>
-    <t>Px = 101844.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Iy = ( 0.00, -0.98, -0.20)   </t>
-  </si>
-  <si>
-    <t>Py = 712421.86</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Iz = ( 1.00,  0.00,  0.00)   </t>
   </si>
   <si>
-    <t>Pz = 790727.33</t>
-  </si>
-  <si>
-    <t>Lxx = 790715.43</t>
-  </si>
-  <si>
-    <t>Lxy = 772.32</t>
-  </si>
-  <si>
-    <t>Lxz = -2682.59</t>
-  </si>
-  <si>
-    <t>Lyx = 772.32</t>
-  </si>
-  <si>
-    <t>Lyy = 688571.41</t>
-  </si>
-  <si>
-    <t>Lyz = -118295.46</t>
-  </si>
-  <si>
-    <t>Lzx = -2682.59</t>
-  </si>
-  <si>
-    <t>Lzy = -118295.46</t>
-  </si>
-  <si>
-    <t>Lzz = 125706.90</t>
-  </si>
-  <si>
-    <t>Ixx = 4203636.54</t>
-  </si>
-  <si>
-    <t>Ixy = 923.11</t>
-  </si>
-  <si>
-    <t>Ixz = -8938.50</t>
-  </si>
-  <si>
-    <t>Iyx = 923.11</t>
-  </si>
-  <si>
-    <t>Iyy = 4099522.35</t>
-  </si>
-  <si>
-    <t>Iyz = -200510.35</t>
-  </si>
-  <si>
-    <t>Izx = -8938.50</t>
-  </si>
-  <si>
-    <t>Izy = -200510.35</t>
-  </si>
-  <si>
-    <t>Izz = 127700.02</t>
-  </si>
-  <si>
-    <t>Mass = 74.44 grams</t>
-  </si>
-  <si>
-    <t>Volume = 71418.77 cubic millimeters</t>
-  </si>
-  <si>
-    <t>Surface area = 34731.36  square millimeters</t>
-  </si>
-  <si>
     <t>X = 0.00</t>
-  </si>
-  <si>
-    <t>Y = 9.24</t>
-  </si>
-  <si>
-    <t>Z = -78.32</t>
-  </si>
-  <si>
-    <t>Px = 30157.15</t>
-  </si>
-  <si>
-    <t>Py = 98878.06</t>
-  </si>
-  <si>
-    <t>Pz = 116463.81</t>
-  </si>
-  <si>
-    <t>Lxx = 116463.79</t>
-  </si>
-  <si>
-    <t>Lxy = 16.91</t>
-  </si>
-  <si>
-    <t>Lxz = -10.06</t>
-  </si>
-  <si>
-    <t>Lyx = 16.91</t>
-  </si>
-  <si>
-    <t>Lyy = 96166.53</t>
-  </si>
-  <si>
-    <t>Lyz = -13378.61</t>
-  </si>
-  <si>
-    <t>Lzx = -10.06</t>
-  </si>
-  <si>
-    <t>Lzy = -13378.61</t>
-  </si>
-  <si>
-    <t>Lzz = 32868.69</t>
-  </si>
-  <si>
-    <t>Ixx = 579477.00</t>
-  </si>
-  <si>
-    <t>Ixy = 14.66</t>
-  </si>
-  <si>
-    <t>Ixz = 9.02</t>
-  </si>
-  <si>
-    <t>Iyx = 14.66</t>
-  </si>
-  <si>
-    <t>Iyy = 552821.33</t>
-  </si>
-  <si>
-    <t>Iyz = -67263.60</t>
-  </si>
-  <si>
-    <t>Izx = 9.02</t>
-  </si>
-  <si>
-    <t>Izy = -67263.60</t>
-  </si>
-  <si>
-    <t>Izz = 39227.09</t>
   </si>
   <si>
     <t>Mass = 34.70 grams</t>
@@ -440,14 +275,185 @@
       <t xml:space="preserve"> (N*m*s/rad)</t>
     </r>
   </si>
+  <si>
+    <t>Mass = 212.28 grams</t>
+  </si>
+  <si>
+    <t>Volume = 208374.26 cubic millimeters</t>
+  </si>
+  <si>
+    <t>Surface area = 70692.90  square millimeters</t>
+  </si>
+  <si>
+    <t>X = 0.11</t>
+  </si>
+  <si>
+    <t>Y = 1.03</t>
+  </si>
+  <si>
+    <t>Z = -142.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ix = ( 0.00, -0.04,  1.00)   </t>
+  </si>
+  <si>
+    <t>Px = 104847.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iy = ( 0.00, -1.00, -0.04)   </t>
+  </si>
+  <si>
+    <t>Py = 1086847.99</t>
+  </si>
+  <si>
+    <t>Pz = 1148142.16</t>
+  </si>
+  <si>
+    <t>Lxx = 1148138.92</t>
+  </si>
+  <si>
+    <t>Lxy = 125.03</t>
+  </si>
+  <si>
+    <t>Lxz = -1818.95</t>
+  </si>
+  <si>
+    <t>Lyx = 125.03</t>
+  </si>
+  <si>
+    <t>Lyy = 1085524.93</t>
+  </si>
+  <si>
+    <t>Lyz = -36021.50</t>
+  </si>
+  <si>
+    <t>Lzx = -1818.95</t>
+  </si>
+  <si>
+    <t>Lzy = -36021.50</t>
+  </si>
+  <si>
+    <t>Lzz = 106174.14</t>
+  </si>
+  <si>
+    <t>Ixx = 5429475.12</t>
+  </si>
+  <si>
+    <t>Ixy = 149.34</t>
+  </si>
+  <si>
+    <t>Ixz = -5181.97</t>
+  </si>
+  <si>
+    <t>Iyx = 149.34</t>
+  </si>
+  <si>
+    <t>Iyy = 5366640.18</t>
+  </si>
+  <si>
+    <t>Iyz = -66960.50</t>
+  </si>
+  <si>
+    <t>Izx = -5181.97</t>
+  </si>
+  <si>
+    <t>Izy = -66960.50</t>
+  </si>
+  <si>
+    <t>Izz = 106400.38</t>
+  </si>
+  <si>
+    <t>Mass = 95.42 grams</t>
+  </si>
+  <si>
+    <t>Volume = 93155.76 cubic millimeters</t>
+  </si>
+  <si>
+    <t>Surface area = 37034.39  square millimeters</t>
+  </si>
+  <si>
+    <t>Y = 12.23</t>
+  </si>
+  <si>
+    <t>Z = -73.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ix = ( 0.00, -0.29,  0.96)   </t>
+  </si>
+  <si>
+    <t>Px = 36499.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iy = ( 0.00, -0.96, -0.29)   </t>
+  </si>
+  <si>
+    <t>Py = 144669.60</t>
+  </si>
+  <si>
+    <t>Pz = 164192.56</t>
+  </si>
+  <si>
+    <t>Lxx = 164192.56</t>
+  </si>
+  <si>
+    <t>Lxy = -8.30</t>
+  </si>
+  <si>
+    <t>Lxz = -0.11</t>
+  </si>
+  <si>
+    <t>Lyx = -8.30</t>
+  </si>
+  <si>
+    <t>Lyy = 135504.80</t>
+  </si>
+  <si>
+    <t>Lyz = -30122.51</t>
+  </si>
+  <si>
+    <t>Lzx = -0.11</t>
+  </si>
+  <si>
+    <t>Lzy = -30122.51</t>
+  </si>
+  <si>
+    <t>Lzz = 45664.13</t>
+  </si>
+  <si>
+    <t>Ixx = 697698.53</t>
+  </si>
+  <si>
+    <t>Ixy = -7.71</t>
+  </si>
+  <si>
+    <t>Ixz = -3.64</t>
+  </si>
+  <si>
+    <t>Iyx = -7.71</t>
+  </si>
+  <si>
+    <t>Iyy = 654737.34</t>
+  </si>
+  <si>
+    <t>Iyz = -116211.01</t>
+  </si>
+  <si>
+    <t>Izx = -3.64</t>
+  </si>
+  <si>
+    <t>Izy = -116211.01</t>
+  </si>
+  <si>
+    <t>Izz = 59937.56</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.000E+00"/>
-    <numFmt numFmtId="171" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -500,13 +506,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78B1CA8-54CD-4111-AAE7-85B90064C9A5}">
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -842,47 +848,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
+      <c r="F2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>BaseArmMotor!B3*10^-9</f>
-        <v>1.2770002000000002E-4</v>
-      </c>
-      <c r="D4" s="6">
+        <v>1.0640038000000001E-4</v>
+      </c>
+      <c r="D4" s="5">
         <f>F4*(G4/(H4*2* PI() /60))</f>
         <v>1.2950531339942287E-6</v>
       </c>
@@ -895,7 +901,7 @@
       <c r="H4">
         <v>6800</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <f>310*10^-9</f>
         <v>3.1E-7</v>
       </c>
@@ -904,11 +910,11 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>ForeArmMotor!B3*10^-9</f>
-        <v>3.9227090000000002E-5</v>
-      </c>
-      <c r="D5" s="6">
+        <v>5.9937560000000004E-5</v>
+      </c>
+      <c r="D5" s="5">
         <f>F5*(G5/(H5*2* PI() /60))</f>
         <v>1.2950531339942287E-6</v>
       </c>
@@ -926,11 +932,11 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <f>GripperMotor!B3*10^-9</f>
         <v>1.8140610000000001E-5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>F6*(G6/(H6*2* PI() /60))</f>
         <v>1.2950531339942287E-6</v>
       </c>
@@ -948,8 +954,8 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <f>F7*(G7/(H7*2* PI() /60))</f>
         <v>1.2950531339942287E-6</v>
       </c>
@@ -977,23 +983,23 @@
   <dimension ref="B2:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <f>RIGHT(E36, LEN(E36)-E38+1)</f>
-        <v>127700.02</v>
+        <v>106400.38</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1013,17 +1019,17 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -1033,17 +1039,17 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -1058,26 +1064,26 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -1092,35 +1098,35 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1135,40 +1141,40 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">MIN(SEARCH({0,1,2,3,4,5,6,7,8,9},E36&amp;"0123456789"))</f>
@@ -1185,23 +1191,23 @@
   <dimension ref="B2:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <f>RIGHT(E36, LEN(E36)-E38+1)</f>
-        <v>39227.09</v>
+        <v>59937.56</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1221,17 +1227,17 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -1241,17 +1247,17 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -1266,26 +1272,26 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -1300,35 +1306,35 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1343,40 +1349,40 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">MIN(SEARCH({0,1,2,3,4,5,6,7,8,9},E36&amp;"0123456789"))</f>
@@ -1392,24 +1398,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E019FA51-F931-4229-A186-C6575DDBC7C0}">
   <dimension ref="B2:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <f>RIGHT(E36, LEN(E36)-E38+1)</f>
         <v>18140.61</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1429,17 +1435,17 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -1449,17 +1455,17 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -1474,26 +1480,26 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -1508,35 +1514,35 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1551,40 +1557,40 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">MIN(SEARCH({0,1,2,3,4,5,6,7,8,9},E36&amp;"0123456789"))</f>

--- a/Mechanical/3D Model/Model 4/Mass Analysis.xlsx
+++ b/Mechanical/3D Model/Model 4/Mass Analysis.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danzn\Desktop\ARMFLEX9000\Mechanical\3D Model\Model 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205C9467-60B3-4031-ABCC-ABD1BA1D4734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD9380E-9FFC-4D60-92BF-02A7CA3606D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5184" yWindow="4476" windowWidth="30960" windowHeight="12204" activeTab="3" xr2:uid="{B3E33D88-83A3-41BC-A8DD-9DF247FD2043}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="30960" windowHeight="12204" xr2:uid="{B3E33D88-83A3-41BC-A8DD-9DF247FD2043}"/>
   </bookViews>
   <sheets>
-    <sheet name="Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Linear Model" sheetId="1" r:id="rId1"/>
     <sheet name="BaseArmMotor" sheetId="2" r:id="rId2"/>
     <sheet name="ForeArmMotor" sheetId="3" r:id="rId3"/>
     <sheet name="GripperMotor" sheetId="4" r:id="rId4"/>
@@ -829,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78B1CA8-54CD-4111-AAE7-85B90064C9A5}">
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -1398,7 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E019FA51-F931-4229-A186-C6575DDBC7C0}">
   <dimension ref="B2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
